--- a/CaVaTeCo/form_n_devolucao.xlsx
+++ b/CaVaTeCo/form_n_devolucao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DF537-56D4-4C39-84DB-C875FB3F692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122F56D-2065-42DF-A9D7-CFDF80F7625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="313">
   <si>
     <t>type</t>
   </si>
@@ -390,9 +390,6 @@
     <t>age_range</t>
   </si>
   <si>
-    <t>id_document</t>
-  </si>
-  <si>
     <t>id_number</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
   </si>
   <si>
     <t>id_permanent</t>
-  </si>
-  <si>
-    <t>Será que o BI é vitalício?</t>
   </si>
   <si>
     <t>photo</t>
@@ -971,12 +965,36 @@
   <si>
     <t>"CLCR Lot 1 Avante"</t>
   </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+  </si>
+  <si>
+    <t>Será que o documento é vitalício?</t>
+  </si>
+  <si>
+    <t>id_document_1</t>
+  </si>
+  <si>
+    <t>${id_document_1} = 'identify_document'</t>
+  </si>
+  <si>
+    <t>id_document_2</t>
+  </si>
+  <si>
+    <t>${id_document_2} = 'identify_document'</t>
+  </si>
+  <si>
+    <t>id_document_3</t>
+  </si>
+  <si>
+    <t>${id_document_3} = 'identify_document'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1212,13 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1503,7 +1514,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1624,13 +1635,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="243" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1649,11 +1653,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="242" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="242" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1673,7 +1674,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2259,11 +2262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>11</v>
@@ -2336,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>13</v>
@@ -2345,7 +2348,7 @@
         <v>35</v>
       </c>
       <c r="S1" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2372,32 +2375,32 @@
         <v>97</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="N6" s="73" t="s">
+      <c r="B6" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="57" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="74" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2411,7 @@
         <v>98</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2416,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2"/>
       <c r="L9" s="30" t="s">
@@ -2430,8 +2433,8 @@
       <c r="B10" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="73" t="s">
-        <v>298</v>
+      <c r="O10" s="69" t="s">
+        <v>296</v>
       </c>
       <c r="P10" s="50"/>
     </row>
@@ -2443,7 +2446,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -2459,39 +2462,39 @@
       <c r="B13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>302</v>
+      <c r="C13" s="71" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>251</v>
+      <c r="B14" s="67" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="77" t="s">
+      <c r="A15" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>252</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>254</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>21</v>
@@ -2501,25 +2504,25 @@
       <c r="A16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>255</v>
+      <c r="B16" s="67" t="s">
+        <v>253</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="67" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>21</v>
@@ -2532,7 +2535,7 @@
       <c r="A18" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="67" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -2549,7 +2552,7 @@
       <c r="A19" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="67" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -2569,7 +2572,7 @@
       <c r="A20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="67" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -2587,19 +2590,19 @@
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>301</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="79" t="s">
-        <v>305</v>
+      <c r="G21" s="70" t="s">
+        <v>303</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>21</v>
@@ -2612,31 +2615,31 @@
       <c r="A22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>287</v>
+      <c r="B22" s="67" t="s">
+        <v>285</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="72" t="s">
         <v>289</v>
-      </c>
-      <c r="B23" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>291</v>
       </c>
       <c r="J23" s="34" t="s">
         <v>21</v>
@@ -2646,25 +2649,25 @@
       <c r="A24" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>154</v>
+      <c r="B24" s="67" t="s">
+        <v>152</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>256</v>
+        <v>167</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>254</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>21</v>
@@ -2672,16 +2675,16 @@
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>257</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>21</v>
@@ -2697,8 +2700,8 @@
       <c r="C27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="67" t="s">
-        <v>280</v>
+      <c r="F27" s="64" t="s">
+        <v>278</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>41</v>
@@ -2709,13 +2712,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="50" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2723,24 +2726,24 @@
         <v>42</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>206</v>
-      </c>
       <c r="D30" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -2748,16 +2751,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="P31" s="54" t="s">
         <v>208</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="P31" s="54" t="s">
-        <v>210</v>
       </c>
       <c r="Q31" s="54"/>
       <c r="R31" s="54"/>
@@ -2770,16 +2773,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="54" t="s">
         <v>211</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="P32" s="54" t="s">
-        <v>213</v>
       </c>
       <c r="Q32" s="54"/>
       <c r="R32" s="54"/>
@@ -2792,16 +2795,16 @@
         <v>28</v>
       </c>
       <c r="B33" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" s="54" t="s">
         <v>214</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>216</v>
       </c>
       <c r="Q33" s="54"/>
       <c r="R33" s="54"/>
@@ -2814,16 +2817,16 @@
         <v>28</v>
       </c>
       <c r="B34" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="P34" s="54" t="s">
         <v>217</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="P34" s="54" t="s">
-        <v>219</v>
       </c>
       <c r="Q34" s="54"/>
       <c r="R34" s="54"/>
@@ -2836,16 +2839,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="P35" s="65" t="s">
-        <v>269</v>
+        <v>219</v>
+      </c>
+      <c r="P35" s="62" t="s">
+        <v>267</v>
       </c>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
@@ -2858,16 +2861,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="P36" s="65" t="s">
-        <v>268</v>
+        <v>221</v>
+      </c>
+      <c r="P36" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="54"/>
@@ -2880,16 +2883,16 @@
         <v>28</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G37" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P37" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
@@ -2902,16 +2905,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P38" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
@@ -2924,16 +2927,16 @@
         <v>28</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P39" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
@@ -2946,16 +2949,16 @@
         <v>28</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P40" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
@@ -2968,16 +2971,16 @@
         <v>28</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="P41" s="68" t="s">
-        <v>281</v>
+        <v>231</v>
+      </c>
+      <c r="P41" s="65" t="s">
+        <v>279</v>
       </c>
       <c r="Q41" s="54"/>
       <c r="R41" s="54"/>
@@ -2990,16 +2993,16 @@
         <v>28</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P42" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q42" s="54"/>
       <c r="R42" s="54"/>
@@ -3011,17 +3014,17 @@
       <c r="A43" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="P43" s="62" t="s">
         <v>265</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="P43" s="65" t="s">
-        <v>267</v>
       </c>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
@@ -3037,7 +3040,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J44" s="50" t="s">
         <v>21</v>
@@ -3046,7 +3049,7 @@
         <v>36</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3054,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>46</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="48" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>111</v>
@@ -3102,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>21</v>
@@ -3119,16 +3122,16 @@
     </row>
     <row r="50" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J50" s="30" t="s">
         <v>21</v>
@@ -3142,10 +3145,10 @@
         <v>22</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L51" s="17" t="s">
         <v>30</v>
@@ -3162,7 +3165,7 @@
         <v>114</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>38</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="53" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>115</v>
@@ -3179,10 +3182,10 @@
         <v>61</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L53" s="30" t="s">
         <v>48</v>
@@ -3199,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>49</v>
@@ -3210,16 +3213,16 @@
     </row>
     <row r="56" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>116</v>
+        <v>169</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>307</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J56" s="30" t="s">
         <v>21</v>
@@ -3233,16 +3236,16 @@
         <v>28</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I57" s="67" t="s">
-        <v>282</v>
+      <c r="I57" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3250,16 +3253,16 @@
         <v>28</v>
       </c>
       <c r="B58" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="H58" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="67" t="s">
-        <v>282</v>
+      <c r="I58" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3267,10 +3270,10 @@
         <v>17</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="L59" s="30" t="s">
         <v>38</v>
@@ -3281,10 +3284,10 @@
         <v>17</v>
       </c>
       <c r="B60" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="L60" s="30" t="s">
         <v>38</v>
@@ -3292,16 +3295,16 @@
     </row>
     <row r="61" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3315,10 +3318,10 @@
         <v>29</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>274</v>
+        <v>126</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="J63" s="30" t="s">
         <v>21</v>
@@ -3329,10 +3332,10 @@
         <v>29</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>277</v>
+        <v>128</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>275</v>
       </c>
       <c r="J64" s="30" t="s">
         <v>21</v>
@@ -3343,10 +3346,13 @@
         <v>29</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="67" t="s">
-        <v>278</v>
+        <v>129</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3354,13 +3360,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>62</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3368,16 +3374,16 @@
         <v>28</v>
       </c>
       <c r="B67" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L67" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="C67" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="L67" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3393,8 +3399,8 @@
       <c r="B69" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="66" t="s">
-        <v>276</v>
+      <c r="C69" s="63" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3402,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>56</v>
@@ -3414,27 +3420,27 @@
         <v>31</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>206</v>
-      </c>
       <c r="D72" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -3442,16 +3448,16 @@
         <v>28</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C73" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="P73" s="54" t="s">
         <v>208</v>
-      </c>
-      <c r="G73" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="P73" s="54" t="s">
-        <v>210</v>
       </c>
       <c r="Q73" s="54"/>
       <c r="R73" s="54"/>
@@ -3464,16 +3470,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P74" s="54" t="s">
         <v>211</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="P74" s="54" t="s">
-        <v>213</v>
       </c>
       <c r="Q74" s="54"/>
       <c r="R74" s="54"/>
@@ -3486,16 +3492,16 @@
         <v>28</v>
       </c>
       <c r="B75" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="P75" s="54" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="P75" s="54" t="s">
-        <v>216</v>
       </c>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
@@ -3508,16 +3514,16 @@
         <v>28</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="P76" s="54" t="s">
         <v>217</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G76" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="P76" s="54" t="s">
-        <v>219</v>
       </c>
       <c r="Q76" s="54"/>
       <c r="R76" s="54"/>
@@ -3530,16 +3536,16 @@
         <v>28</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G77" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="P77" s="65" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="P77" s="62" t="s">
+        <v>267</v>
       </c>
       <c r="Q77" s="54"/>
       <c r="R77" s="54"/>
@@ -3552,16 +3558,16 @@
         <v>28</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="P78" s="65" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="P78" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="Q78" s="54"/>
       <c r="R78" s="54"/>
@@ -3574,16 +3580,16 @@
         <v>28</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P79" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
@@ -3596,16 +3602,16 @@
         <v>28</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G80" s="54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P80" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q80" s="54"/>
       <c r="R80" s="54"/>
@@ -3618,16 +3624,16 @@
         <v>28</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G81" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P81" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q81" s="54"/>
       <c r="R81" s="54"/>
@@ -3640,16 +3646,16 @@
         <v>28</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P82" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q82" s="54"/>
       <c r="R82" s="54"/>
@@ -3662,16 +3668,16 @@
         <v>28</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G83" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="P83" s="68" t="s">
-        <v>281</v>
+        <v>245</v>
+      </c>
+      <c r="P83" s="65" t="s">
+        <v>279</v>
       </c>
       <c r="Q83" s="54"/>
       <c r="R83" s="54"/>
@@ -3684,16 +3690,16 @@
         <v>28</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G84" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P84" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q84" s="54"/>
       <c r="R84" s="54"/>
@@ -3706,16 +3712,16 @@
         <v>28</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="P85" s="54" t="s">
         <v>265</v>
-      </c>
-      <c r="C85" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="P85" s="54" t="s">
-        <v>267</v>
       </c>
       <c r="Q85" s="54"/>
       <c r="R85" s="54"/>
@@ -3731,7 +3737,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J86" s="50" t="s">
         <v>21</v>
@@ -3740,7 +3746,7 @@
         <v>36</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3748,7 +3754,7 @@
         <v>22</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>46</v>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="90" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>111</v>
@@ -3796,7 +3802,7 @@
         <v>60</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J90" s="30" t="s">
         <v>21</v>
@@ -3813,16 +3819,16 @@
     </row>
     <row r="92" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C92" s="30" t="s">
         <v>112</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J92" s="30" t="s">
         <v>21</v>
@@ -3836,10 +3842,10 @@
         <v>22</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L93" s="17" t="s">
         <v>30</v>
@@ -3856,7 +3862,7 @@
         <v>114</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L94" s="30" t="s">
         <v>38</v>
@@ -3864,7 +3870,7 @@
     </row>
     <row r="95" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>115</v>
@@ -3873,10 +3879,10 @@
         <v>61</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L95" s="30" t="s">
         <v>48</v>
@@ -3893,7 +3899,7 @@
         <v>22</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>49</v>
@@ -3904,16 +3910,16 @@
     </row>
     <row r="98" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>116</v>
+        <v>169</v>
+      </c>
+      <c r="B98" s="75" t="s">
+        <v>309</v>
       </c>
       <c r="C98" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J98" s="30" t="s">
         <v>21</v>
@@ -3927,16 +3933,16 @@
         <v>28</v>
       </c>
       <c r="B99" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H99" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="H99" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I99" s="67" t="s">
-        <v>282</v>
+      <c r="I99" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3944,16 +3950,16 @@
         <v>28</v>
       </c>
       <c r="B100" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="H100" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H100" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I100" s="67" t="s">
-        <v>282</v>
+      <c r="I100" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -3961,10 +3967,10 @@
         <v>17</v>
       </c>
       <c r="B101" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="L101" s="30" t="s">
         <v>38</v>
@@ -3975,10 +3981,10 @@
         <v>17</v>
       </c>
       <c r="B102" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="L102" s="30" t="s">
         <v>38</v>
@@ -3986,16 +3992,16 @@
     </row>
     <row r="103" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4009,16 +4015,16 @@
         <v>29</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" s="67" t="s">
-        <v>274</v>
+        <v>126</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>272</v>
       </c>
       <c r="J105" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M105" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4026,16 +4032,16 @@
         <v>29</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="67" t="s">
-        <v>277</v>
+        <v>128</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>275</v>
       </c>
       <c r="J106" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M106" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,13 +4049,16 @@
         <v>29</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" s="67" t="s">
-        <v>278</v>
+        <v>129</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>310</v>
       </c>
       <c r="M107" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -4057,13 +4066,13 @@
         <v>28</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>62</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4071,16 +4080,16 @@
         <v>28</v>
       </c>
       <c r="B109" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L109" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="C109" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="H109" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="L109" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4096,8 +4105,8 @@
       <c r="B111" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="66" t="s">
-        <v>279</v>
+      <c r="C111" s="63" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4105,10 +4114,10 @@
         <v>39</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H112" s="30" t="s">
         <v>52</v>
@@ -4122,58 +4131,58 @@
         <v>31</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J114" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C114" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="J114" s="58" t="s">
+      <c r="F115" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="J115" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="60" t="s">
+    <row r="116" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="N116" s="34" t="s">
         <v>284</v>
-      </c>
-      <c r="B115" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="F115" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J115" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B116" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="N116" s="58" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4181,7 +4190,7 @@
         <v>22</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>49</v>
@@ -4192,16 +4201,16 @@
     </row>
     <row r="118" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>116</v>
+        <v>169</v>
+      </c>
+      <c r="B118" s="75" t="s">
+        <v>311</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D118" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J118" s="30" t="s">
         <v>21</v>
@@ -4215,16 +4224,16 @@
         <v>28</v>
       </c>
       <c r="B119" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H119" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="H119" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I119" s="67" t="s">
-        <v>282</v>
+      <c r="I119" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4232,16 +4241,16 @@
         <v>28</v>
       </c>
       <c r="B120" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="H120" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H120" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I120" s="67" t="s">
-        <v>282</v>
+      <c r="I120" s="64" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4249,10 +4258,10 @@
         <v>17</v>
       </c>
       <c r="B121" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="L121" s="30" t="s">
         <v>38</v>
@@ -4263,10 +4272,10 @@
         <v>17</v>
       </c>
       <c r="B122" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="L122" s="30" t="s">
         <v>38</v>
@@ -4274,16 +4283,16 @@
     </row>
     <row r="123" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="C123" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4297,16 +4306,16 @@
         <v>29</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J125" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M125" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4317,7 +4326,7 @@
         <v>36</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J126" s="30" t="s">
         <v>21</v>
@@ -4331,16 +4340,16 @@
         <v>29</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" s="67" t="s">
-        <v>277</v>
+        <v>128</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>275</v>
       </c>
       <c r="J127" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M127" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4348,13 +4357,16 @@
         <v>29</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" s="67" t="s">
-        <v>278</v>
+        <v>129</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G128" s="70" t="s">
+        <v>312</v>
       </c>
       <c r="M128" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4362,16 +4374,16 @@
         <v>28</v>
       </c>
       <c r="B129" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L129" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="C129" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="H129" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="L129" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4594,8 +4606,8 @@
       <c r="B20" s="40"/>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
+    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -4644,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7728,25 +7740,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B584" s="45"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B585" s="45"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B586" s="45"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B587" s="45"/>
     </row>
@@ -7755,19 +7767,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B589" s="45"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B590" s="45"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B591" s="45"/>
     </row>
@@ -7902,31 +7914,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B616" s="45"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B617" s="45"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B618" s="45"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B619" s="45"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B620" s="45"/>
     </row>
@@ -7935,131 +7947,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B622" s="45"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B623" s="45"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B626" s="45"/>
       <c r="C626" s="46"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B627" s="45"/>
       <c r="C627" s="46"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B628" s="45"/>
       <c r="C628" s="46"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B629" s="45"/>
       <c r="C629" s="46"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B630" s="45"/>
       <c r="C630" s="46"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B631" s="45"/>
       <c r="C631" s="46"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B632" s="45"/>
       <c r="C632" s="46"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B633" s="45"/>
       <c r="C633" s="46"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B634" s="45"/>
       <c r="C634" s="46"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B635" s="45"/>
       <c r="C635" s="46"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B636" s="45"/>
       <c r="C636" s="46"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B637" s="45"/>
       <c r="C637" s="46"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B638" s="45"/>
       <c r="C638" s="46"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B639" s="45"/>
       <c r="C639" s="46"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B640" s="45"/>
       <c r="C640" s="46"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B641" s="45"/>
       <c r="C641" s="46"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B642" s="45"/>
       <c r="C642" s="46"/>
@@ -8071,168 +8083,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B644" s="47"/>
       <c r="C644" s="46"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B645" s="47"/>
       <c r="C645" s="46"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B647" s="45"/>
       <c r="C647" s="46"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B648" s="45"/>
       <c r="C648" s="46"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B649" s="45"/>
       <c r="C649" s="46"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B650" s="45"/>
       <c r="C650" s="46"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B651" s="45"/>
       <c r="C651" s="46"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B652" s="45"/>
       <c r="C652" s="46"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B653" s="45"/>
       <c r="C653" s="46"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B654" s="45"/>
       <c r="C654" s="46"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B655" s="45"/>
       <c r="C655" s="46"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B656" s="45"/>
       <c r="C656" s="46"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B657" s="45"/>
       <c r="C657" s="46"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B658" s="45"/>
       <c r="C658" s="46"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B659" s="45"/>
       <c r="C659" s="46"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B660" s="45"/>
       <c r="C660" s="46"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B661" s="45"/>
       <c r="C661" s="46"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B662" s="45"/>
       <c r="C662" s="46"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B663" s="45"/>
       <c r="C663" s="46"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B664" s="45"/>
       <c r="C664" s="46"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B665" s="45"/>
       <c r="C665" s="46"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B668" s="45"/>
       <c r="C668" s="46"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B669" s="45"/>
       <c r="C669" s="46"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B670" s="45"/>
       <c r="C670" s="46"/>
@@ -8249,483 +8261,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B673" s="45"/>
       <c r="C673" s="46"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B674" s="45"/>
       <c r="C674" s="46"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B675" s="45"/>
       <c r="C675" s="46"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B676" s="45"/>
       <c r="C676" s="46"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B677" s="45"/>
       <c r="C677" s="46"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B678" s="45"/>
       <c r="C678" s="46"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B679" s="45"/>
       <c r="C679" s="46"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B680" s="45"/>
       <c r="C680" s="46"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B681" s="45"/>
       <c r="C681" s="46"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B682" s="45"/>
       <c r="C682" s="46"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B684" s="45"/>
       <c r="C684" s="46"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B685" s="45"/>
       <c r="C685" s="46"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B686" s="45"/>
       <c r="C686" s="46"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B687" s="45"/>
       <c r="C687" s="46"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B688" s="45"/>
       <c r="C688" s="46"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B689" s="45"/>
       <c r="C689" s="46"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B690" s="45"/>
       <c r="C690" s="46"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B691" s="45"/>
       <c r="C691" s="46"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B692" s="45"/>
       <c r="C692" s="46"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B693" s="45"/>
       <c r="C693" s="46"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B694" s="45"/>
       <c r="C694" s="46"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B696" s="45"/>
       <c r="C696" s="46"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B697" s="45"/>
       <c r="C697" s="46"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B698" s="45"/>
       <c r="C698" s="46"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B699" s="45"/>
       <c r="C699" s="46"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B700" s="45"/>
       <c r="C700" s="46"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B701" s="45"/>
       <c r="C701" s="46"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B702" s="45"/>
       <c r="C702" s="46"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B703" s="45"/>
       <c r="C703" s="46"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B704" s="45"/>
       <c r="C704" s="46"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B705" s="45"/>
       <c r="C705" s="46"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B706" s="45"/>
       <c r="C706" s="46"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B707" s="45"/>
       <c r="C707" s="46"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B709" s="45"/>
       <c r="C709" s="46"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B710" s="45"/>
       <c r="C710" s="46"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B711" s="45"/>
       <c r="C711" s="46"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B712" s="45"/>
       <c r="C712" s="46"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B714" s="45"/>
       <c r="C714" s="46"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B715" s="45"/>
       <c r="C715" s="46"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B716" s="45"/>
       <c r="C716" s="46"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B717" s="45"/>
       <c r="C717" s="46"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B718" s="45"/>
       <c r="C718" s="46"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B719" s="45"/>
       <c r="C719" s="46"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B720" s="45"/>
       <c r="C720" s="46"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B721" s="45"/>
       <c r="C721" s="46"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B722" s="45"/>
       <c r="C722" s="46"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B723" s="45"/>
       <c r="C723" s="46"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B724" s="45"/>
       <c r="C724" s="46"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B725" s="45"/>
       <c r="C725" s="46"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B726" s="45"/>
       <c r="C726" s="46"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B727" s="45"/>
       <c r="C727" s="46"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B728" s="45"/>
       <c r="C728" s="46"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B729" s="45"/>
       <c r="C729" s="46"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B730" s="45"/>
       <c r="C730" s="46"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B731" s="45"/>
       <c r="C731" s="46"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B732" s="45"/>
       <c r="C732" s="46"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B733" s="45"/>
       <c r="C733" s="46"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B734" s="45"/>
       <c r="C734" s="46"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B735" s="45"/>
       <c r="C735" s="46"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B736" s="45"/>
       <c r="C736" s="46"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B737" s="45"/>
       <c r="C737" s="46"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B738" s="45"/>
       <c r="C738" s="46"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B739" s="45"/>
       <c r="C739" s="46"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B740" s="45"/>
       <c r="C740" s="46"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B742" s="45"/>
       <c r="C742" s="46"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B743" s="45"/>
       <c r="C743" s="46"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B744" s="45"/>
       <c r="C744" s="46"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B745" s="45"/>
       <c r="C745" s="46"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B746" s="45"/>
       <c r="C746" s="46"/>
@@ -8737,63 +8749,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B748" s="45"/>
       <c r="C748" s="46"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B749" s="45"/>
       <c r="C749" s="46"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B750" s="45"/>
       <c r="C750" s="46"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B751" s="45"/>
       <c r="C751" s="46"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B752" s="45"/>
       <c r="C752" s="46"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B753" s="45"/>
       <c r="C753" s="46"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B754" s="45"/>
       <c r="C754" s="46"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B755" s="45"/>
       <c r="C755" s="46"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B756" s="45"/>
       <c r="C756" s="46"/>
@@ -8805,112 +8817,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B758" s="45"/>
       <c r="C758" s="46"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B759" s="45"/>
       <c r="C759" s="46"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B760" s="45"/>
       <c r="C760" s="46"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B761" s="45"/>
       <c r="C761" s="46"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B762" s="45"/>
       <c r="C762" s="46"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B763" s="45"/>
       <c r="C763" s="46"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B764" s="45"/>
       <c r="C764" s="46"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B765" s="45"/>
       <c r="C765" s="46"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B766" s="45"/>
       <c r="C766" s="46"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B767" s="45"/>
       <c r="C767" s="46"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B768" s="45"/>
       <c r="C768" s="46"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B769" s="45"/>
       <c r="C769" s="46"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B770" s="45"/>
       <c r="C770" s="46"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B771" s="45"/>
       <c r="C771" s="46"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B772" s="45"/>
       <c r="C772" s="46"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B773" s="45"/>
       <c r="C773" s="46"/>
@@ -8922,147 +8934,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B775" s="45"/>
       <c r="C775" s="46"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B776" s="45"/>
       <c r="C776" s="46"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B777" s="45"/>
       <c r="C777" s="46"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B778" s="45"/>
       <c r="C778" s="46"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B779" s="45"/>
       <c r="C779" s="46"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B780" s="45"/>
       <c r="C780" s="46"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B781" s="45"/>
       <c r="C781" s="46"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B782" s="45"/>
       <c r="C782" s="46"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B783" s="45"/>
       <c r="C783" s="46"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B784" s="45"/>
       <c r="C784" s="46"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B785" s="45"/>
       <c r="C785" s="46"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B786" s="45"/>
       <c r="C786" s="46"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B787" s="45"/>
       <c r="C787" s="46"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B788" s="45"/>
       <c r="C788" s="46"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B789" s="45"/>
       <c r="C789" s="46"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B790" s="45"/>
       <c r="C790" s="46"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B791" s="45"/>
       <c r="C791" s="46"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B792" s="45"/>
       <c r="C792" s="46"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B793" s="45"/>
       <c r="C793" s="46"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B794" s="45"/>
       <c r="C794" s="46"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B795" s="45"/>
       <c r="C795" s="46"/>
@@ -9074,14 +9086,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B797" s="45"/>
       <c r="C797" s="46"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B798" s="45"/>
       <c r="C798" s="46"/>
@@ -9093,21 +9105,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B800" s="45"/>
       <c r="C800" s="46"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B801" s="45"/>
       <c r="C801" s="46"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B803" s="45"/>
       <c r="C803" s="46"/>
@@ -9117,7 +9129,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B804" s="45"/>
       <c r="C804" s="46"/>
@@ -9127,7 +9139,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B805" s="45"/>
       <c r="C805" s="46"/>
@@ -9137,7 +9149,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B806" s="45"/>
       <c r="C806" s="46"/>
@@ -9147,7 +9159,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B807" s="45"/>
       <c r="C807" s="46"/>
@@ -9157,7 +9169,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B808" s="45"/>
       <c r="C808" s="46"/>
@@ -9167,7 +9179,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B809" s="45"/>
       <c r="C809" s="46"/>
@@ -9177,7 +9189,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B810" s="45"/>
       <c r="C810" s="46"/>
@@ -9187,7 +9199,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B811" s="45"/>
       <c r="C811" s="46"/>
@@ -9197,7 +9209,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B812" s="45"/>
       <c r="C812" s="46"/>
@@ -9207,168 +9219,168 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B814" s="45"/>
       <c r="C814" s="46"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B815" s="45"/>
       <c r="C815" s="46"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B816" s="45"/>
       <c r="C816" s="46"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B817" s="45"/>
       <c r="C817" s="46"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B818" s="45"/>
       <c r="C818" s="46"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B819" s="45"/>
       <c r="C819" s="46"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B820" s="45"/>
       <c r="C820" s="46"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B822" s="45"/>
       <c r="C822" s="46"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B823" s="45"/>
       <c r="C823" s="46"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B824" s="45"/>
       <c r="C824" s="46"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B825" s="45"/>
       <c r="C825" s="46"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B826" s="45"/>
       <c r="C826" s="46"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B828" s="45"/>
       <c r="C828" s="48"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B829" s="45"/>
       <c r="C829" s="46"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B830" s="45"/>
       <c r="C830" s="46"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B831" s="45"/>
       <c r="C831" s="46"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B832" s="45"/>
       <c r="C832" s="46"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B833" s="45"/>
       <c r="C833" s="46"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B834" s="45"/>
       <c r="C834" s="46"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B835" s="45"/>
       <c r="C835" s="46"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B837" s="45"/>
       <c r="C837" s="48"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B838" s="45"/>
       <c r="C838" s="46"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B839" s="45"/>
       <c r="C839" s="46"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B840" s="45"/>
       <c r="C840" s="46"/>
@@ -9389,32 +9401,32 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A851" s="72" t="s">
-        <v>297</v>
+      <c r="A851" s="68" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A852" s="72" t="s">
-        <v>297</v>
+      <c r="A852" s="68" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -9427,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9452,7 +9464,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>24</v>
@@ -9460,17 +9472,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="49">
-        <v>202401</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="61" t="s">
-        <v>260</v>
+        <v>202402</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="58" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
